--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H2">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J2">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N2">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q2">
-        <v>63.8278492779212</v>
+        <v>0.6880671742560001</v>
       </c>
       <c r="R2">
-        <v>63.8278492779212</v>
+        <v>6.192604568304001</v>
       </c>
       <c r="S2">
-        <v>0.005770412633329486</v>
+        <v>5.35947749508534E-05</v>
       </c>
       <c r="T2">
-        <v>0.005770412633329486</v>
+        <v>5.35947749508534E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -602,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H3">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J3">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N3">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q3">
-        <v>543.0916780962831</v>
+        <v>3.69066822905</v>
       </c>
       <c r="R3">
-        <v>543.0916780962831</v>
+        <v>33.21601406145</v>
       </c>
       <c r="S3">
-        <v>0.04909867895904401</v>
+        <v>0.0002874727069607398</v>
       </c>
       <c r="T3">
-        <v>0.04909867895904401</v>
+        <v>0.0002874727069607398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H4">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J4">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N4">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q4">
-        <v>1.120332348280073</v>
+        <v>0.01125817491333333</v>
       </c>
       <c r="R4">
-        <v>1.120332348280073</v>
+        <v>0.10132357422</v>
       </c>
       <c r="S4">
-        <v>0.0001012846274655735</v>
+        <v>8.769192506383864E-07</v>
       </c>
       <c r="T4">
-        <v>0.0001012846274655735</v>
+        <v>8.769192506383862E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H5">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J5">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N5">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q5">
-        <v>1.194587423456568</v>
+        <v>0.008730869264333332</v>
       </c>
       <c r="R5">
-        <v>1.194587423456568</v>
+        <v>0.07857782337899999</v>
       </c>
       <c r="S5">
-        <v>0.0001079977225915202</v>
+        <v>6.800629224221236E-07</v>
       </c>
       <c r="T5">
-        <v>0.0001079977225915202</v>
+        <v>6.800629224221236E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H6">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J6">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N6">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q6">
-        <v>2.629495816474195</v>
+        <v>0.02248333692</v>
       </c>
       <c r="R6">
-        <v>2.629495816474195</v>
+        <v>0.20235003228</v>
       </c>
       <c r="S6">
-        <v>0.0002377218729805822</v>
+        <v>1.751267067310043E-06</v>
       </c>
       <c r="T6">
-        <v>0.0002377218729805822</v>
+        <v>1.751267067310043E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.75341901843757</v>
+        <v>0.038687</v>
       </c>
       <c r="H7">
-        <v>5.75341901843757</v>
+        <v>0.116061</v>
       </c>
       <c r="I7">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="J7">
-        <v>0.05989160869459241</v>
+        <v>0.0003724978460720701</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N7">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q7">
-        <v>50.61079076645845</v>
+        <v>0.3610408694676667</v>
       </c>
       <c r="R7">
-        <v>50.61079076645845</v>
+        <v>3.249367825209</v>
       </c>
       <c r="S7">
-        <v>0.004575512879181235</v>
+        <v>2.812211492010629E-05</v>
       </c>
       <c r="T7">
-        <v>0.004575512879181235</v>
+        <v>2.812211492010629E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H8">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J8">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N8">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q8">
-        <v>51.6195317447256</v>
+        <v>121.605387022448</v>
       </c>
       <c r="R8">
-        <v>51.6195317447256</v>
+        <v>1094.448483202032</v>
       </c>
       <c r="S8">
-        <v>0.004666708991075976</v>
+        <v>0.009472059697262468</v>
       </c>
       <c r="T8">
-        <v>0.004666708991075976</v>
+        <v>0.009472059697262468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H9">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J9">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N9">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q9">
-        <v>439.2148323174774</v>
+        <v>652.2693643253167</v>
       </c>
       <c r="R9">
-        <v>439.2148323174774</v>
+        <v>5870.424278927851</v>
       </c>
       <c r="S9">
-        <v>0.03970760171026411</v>
+        <v>0.0508064199199032</v>
       </c>
       <c r="T9">
-        <v>0.03970760171026411</v>
+        <v>0.0508064199199032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H10">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J10">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N10">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q10">
-        <v>0.9060469978375194</v>
+        <v>1.989710843251111</v>
       </c>
       <c r="R10">
-        <v>0.9060469978375194</v>
+        <v>17.90739758926</v>
       </c>
       <c r="S10">
-        <v>8.191197262415661E-05</v>
+        <v>0.0001549821134493485</v>
       </c>
       <c r="T10">
-        <v>8.191197262415661E-05</v>
+        <v>0.0001549821134493485</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H11">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J11">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N11">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q11">
-        <v>0.9660993457333454</v>
+        <v>1.543048085500778</v>
       </c>
       <c r="R11">
-        <v>0.9660993457333454</v>
+        <v>13.887432769507</v>
       </c>
       <c r="S11">
-        <v>8.734105774733403E-05</v>
+        <v>0.0001201907574942538</v>
       </c>
       <c r="T11">
-        <v>8.734105774733403E-05</v>
+        <v>0.0001201907574942538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H12">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I12">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J12">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N12">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q12">
-        <v>2.126553601706029</v>
+        <v>3.97358715836</v>
       </c>
       <c r="R12">
-        <v>2.126553601706029</v>
+        <v>35.76228442524</v>
       </c>
       <c r="S12">
-        <v>0.0001922529414285232</v>
+        <v>0.000309509765133296</v>
       </c>
       <c r="T12">
-        <v>0.0001922529414285232</v>
+        <v>0.000309509765133296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.65296573553322</v>
+        <v>6.837337666666667</v>
       </c>
       <c r="H13">
-        <v>4.65296573553322</v>
+        <v>20.512013</v>
       </c>
       <c r="I13">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="J13">
-        <v>0.0484361737271102</v>
+        <v>0.06583331748909883</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N13">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q13">
-        <v>40.93049272613613</v>
+        <v>63.80847147665522</v>
       </c>
       <c r="R13">
-        <v>40.93049272613613</v>
+        <v>574.276243289897</v>
       </c>
       <c r="S13">
-        <v>0.003700357053970108</v>
+        <v>0.004970155235856266</v>
       </c>
       <c r="T13">
-        <v>0.003700357053970108</v>
+        <v>0.004970155235856266</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H14">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J14">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N14">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q14">
-        <v>950.2753582579261</v>
+        <v>103.179639239936</v>
       </c>
       <c r="R14">
-        <v>950.2753582579261</v>
+        <v>928.616753159424</v>
       </c>
       <c r="S14">
-        <v>0.08591047629627778</v>
+        <v>0.00803684545851795</v>
       </c>
       <c r="T14">
-        <v>0.08591047629627778</v>
+        <v>0.00803684545851795</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H15">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J15">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N15">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q15">
-        <v>8085.602833375808</v>
+        <v>553.4369763234666</v>
       </c>
       <c r="R15">
-        <v>8085.602833375808</v>
+        <v>4980.9327869112</v>
       </c>
       <c r="S15">
-        <v>0.7309860079201469</v>
+        <v>0.04310818958571809</v>
       </c>
       <c r="T15">
-        <v>0.7309860079201469</v>
+        <v>0.04310818958571809</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H16">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I16">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J16">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N16">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q16">
-        <v>16.67961925200033</v>
+        <v>1.688228227591111</v>
       </c>
       <c r="R16">
-        <v>16.67961925200033</v>
+        <v>15.19405404832</v>
       </c>
       <c r="S16">
-        <v>0.001507935591434095</v>
+        <v>0.0001314990967578987</v>
       </c>
       <c r="T16">
-        <v>0.001507935591434095</v>
+        <v>0.0001314990967578987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H17">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I17">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J17">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N17">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q17">
-        <v>17.78513618487655</v>
+        <v>1.309244176513777</v>
       </c>
       <c r="R17">
-        <v>17.78513618487655</v>
+        <v>11.783197588624</v>
       </c>
       <c r="S17">
-        <v>0.001607880818290349</v>
+        <v>0.0001019793555358079</v>
       </c>
       <c r="T17">
-        <v>0.001607880818290349</v>
+        <v>0.0001019793555358079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H18">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I18">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J18">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N18">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q18">
-        <v>39.1481948288375</v>
+        <v>3.37150597952</v>
       </c>
       <c r="R18">
-        <v>39.1481948288375</v>
+        <v>30.34355381568</v>
       </c>
       <c r="S18">
-        <v>0.003539226851099772</v>
+        <v>0.0002626125921690926</v>
       </c>
       <c r="T18">
-        <v>0.003539226851099772</v>
+        <v>0.0002626125921690926</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>85.6574736702736</v>
+        <v>5.801338666666666</v>
       </c>
       <c r="H19">
-        <v>85.6574736702736</v>
+        <v>17.404016</v>
       </c>
       <c r="I19">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="J19">
-        <v>0.8916722175782974</v>
+        <v>0.05585819933486567</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N19">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O19">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P19">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q19">
-        <v>753.4984786640709</v>
+        <v>54.14015964767822</v>
       </c>
       <c r="R19">
-        <v>753.4984786640709</v>
+        <v>487.261436829104</v>
       </c>
       <c r="S19">
-        <v>0.06812069010104851</v>
+        <v>0.004217073246166831</v>
       </c>
       <c r="T19">
-        <v>0.06812069010104851</v>
+        <v>0.004217073246166831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H20">
+        <v>273.542866</v>
+      </c>
+      <c r="I20">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J20">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.785488</v>
+      </c>
+      <c r="N20">
+        <v>53.356464</v>
+      </c>
+      <c r="O20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="P20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="Q20">
+        <v>1621.697786909536</v>
+      </c>
+      <c r="R20">
+        <v>14595.28008218583</v>
+      </c>
+      <c r="S20">
+        <v>0.1263169225035236</v>
+      </c>
+      <c r="T20">
+        <v>0.1263169225035236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H21">
+        <v>273.542866</v>
+      </c>
+      <c r="I21">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J21">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.39815</v>
+      </c>
+      <c r="N21">
+        <v>286.19445</v>
+      </c>
+      <c r="O21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="P21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="Q21">
+        <v>8698.494454032632</v>
+      </c>
+      <c r="R21">
+        <v>78286.45008629371</v>
+      </c>
+      <c r="S21">
+        <v>0.6775411909152852</v>
+      </c>
+      <c r="T21">
+        <v>0.6775411909152853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H22">
+        <v>273.542866</v>
+      </c>
+      <c r="I22">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J22">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2910066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.87302</v>
+      </c>
+      <c r="O22">
+        <v>0.002354159251886579</v>
+      </c>
+      <c r="P22">
+        <v>0.002354159251886578</v>
+      </c>
+      <c r="Q22">
+        <v>26.53426587503556</v>
+      </c>
+      <c r="R22">
+        <v>238.80839287532</v>
+      </c>
+      <c r="S22">
+        <v>0.002066801122428693</v>
+      </c>
+      <c r="T22">
+        <v>0.002066801122428693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H23">
+        <v>273.542866</v>
+      </c>
+      <c r="I23">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J23">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2256796666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.6770389999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="P23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="Q23">
+        <v>20.57768760597489</v>
+      </c>
+      <c r="R23">
+        <v>185.199188453774</v>
+      </c>
+      <c r="S23">
+        <v>0.001602832655755881</v>
+      </c>
+      <c r="T23">
+        <v>0.001602832655755881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H24">
+        <v>273.542866</v>
+      </c>
+      <c r="I24">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J24">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.58116</v>
+      </c>
+      <c r="N24">
+        <v>1.74348</v>
+      </c>
+      <c r="O24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="P24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="Q24">
+        <v>52.99072400152</v>
+      </c>
+      <c r="R24">
+        <v>476.91651601368</v>
+      </c>
+      <c r="S24">
+        <v>0.004127541661052412</v>
+      </c>
+      <c r="T24">
+        <v>0.004127541661052413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>91.18095533333333</v>
+      </c>
+      <c r="H25">
+        <v>273.542866</v>
+      </c>
+      <c r="I25">
+        <v>0.8779359853299634</v>
+      </c>
+      <c r="J25">
+        <v>0.8779359853299635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.332356333333333</v>
+      </c>
+      <c r="N25">
+        <v>27.997069</v>
+      </c>
+      <c r="O25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="P25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="Q25">
+        <v>850.9331659844171</v>
+      </c>
+      <c r="R25">
+        <v>7658.398493859754</v>
+      </c>
+      <c r="S25">
+        <v>0.06628069647191766</v>
+      </c>
+      <c r="T25">
+        <v>0.06628069647191766</v>
       </c>
     </row>
   </sheetData>
